--- a/natmiOut/OldD2/LR-pairs_lrc2p/Mmp9-Cd44.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Mmp9-Cd44.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.74972023968556</v>
+        <v>1.770634</v>
       </c>
       <c r="H2">
-        <v>1.74972023968556</v>
+        <v>5.311902</v>
       </c>
       <c r="I2">
-        <v>0.2643543951600681</v>
+        <v>0.2258515124762303</v>
       </c>
       <c r="J2">
-        <v>0.2643543951600681</v>
+        <v>0.2302920635867541</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>19.1765442733921</v>
+        <v>19.5719925</v>
       </c>
       <c r="N2">
-        <v>19.1765442733921</v>
+        <v>39.143985</v>
       </c>
       <c r="O2">
-        <v>0.0323431139307629</v>
+        <v>0.03094210933382397</v>
       </c>
       <c r="P2">
-        <v>0.0323431139307629</v>
+        <v>0.02187190777676379</v>
       </c>
       <c r="Q2">
-        <v>33.55358764238038</v>
+        <v>34.654835368245</v>
       </c>
       <c r="R2">
-        <v>33.55358764238038</v>
+        <v>207.92901220947</v>
       </c>
       <c r="S2">
-        <v>0.00855004432076</v>
+        <v>0.006988322192249026</v>
       </c>
       <c r="T2">
-        <v>0.00855004432076</v>
+        <v>0.005036926776490107</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.74972023968556</v>
+        <v>1.770634</v>
       </c>
       <c r="H3">
-        <v>1.74972023968556</v>
+        <v>5.311902</v>
       </c>
       <c r="I3">
-        <v>0.2643543951600681</v>
+        <v>0.2258515124762303</v>
       </c>
       <c r="J3">
-        <v>0.2643543951600681</v>
+        <v>0.2302920635867541</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>108.332707554478</v>
+        <v>115.495743</v>
       </c>
       <c r="N3">
-        <v>108.332707554478</v>
+        <v>346.487229</v>
       </c>
       <c r="O3">
-        <v>0.1827136867263477</v>
+        <v>0.1825916246134488</v>
       </c>
       <c r="P3">
-        <v>0.1827136867263477</v>
+        <v>0.1936015640337701</v>
       </c>
       <c r="Q3">
-        <v>189.5519310280069</v>
+        <v>204.500689411062</v>
       </c>
       <c r="R3">
-        <v>189.5519310280069</v>
+        <v>1840.506204699558</v>
       </c>
       <c r="S3">
-        <v>0.04830116614200981</v>
+        <v>0.04123859458443948</v>
       </c>
       <c r="T3">
-        <v>0.04830116614200981</v>
+        <v>0.04458490369496002</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.74972023968556</v>
+        <v>1.770634</v>
       </c>
       <c r="H4">
-        <v>1.74972023968556</v>
+        <v>5.311902</v>
       </c>
       <c r="I4">
-        <v>0.2643543951600681</v>
+        <v>0.2258515124762303</v>
       </c>
       <c r="J4">
-        <v>0.2643543951600681</v>
+        <v>0.2302920635867541</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>218.541511299469</v>
+        <v>239.8982746666667</v>
       </c>
       <c r="N4">
-        <v>218.541511299469</v>
+        <v>719.694824</v>
       </c>
       <c r="O4">
-        <v>0.3685915928224504</v>
+        <v>0.3792643310961689</v>
       </c>
       <c r="P4">
-        <v>0.3685915928224504</v>
+        <v>0.4021332732970914</v>
       </c>
       <c r="Q4">
-        <v>382.3865055321514</v>
+        <v>424.7720416661387</v>
       </c>
       <c r="R4">
-        <v>382.3865055321514</v>
+        <v>3822.948374995248</v>
       </c>
       <c r="S4">
-        <v>0.09743880758166498</v>
+        <v>0.08565742280635551</v>
       </c>
       <c r="T4">
-        <v>0.09743880758166498</v>
+        <v>0.09260810134448333</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.74972023968556</v>
+        <v>1.770634</v>
       </c>
       <c r="H5">
-        <v>1.74972023968556</v>
+        <v>5.311902</v>
       </c>
       <c r="I5">
-        <v>0.2643543951600681</v>
+        <v>0.2258515124762303</v>
       </c>
       <c r="J5">
-        <v>0.2643543951600681</v>
+        <v>0.2302920635867541</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>149.589712980949</v>
+        <v>151.102183</v>
       </c>
       <c r="N5">
-        <v>149.589712980949</v>
+        <v>453.306549</v>
       </c>
       <c r="O5">
-        <v>0.2522976538857455</v>
+        <v>0.2388832034840335</v>
       </c>
       <c r="P5">
-        <v>0.2522976538857455</v>
+        <v>0.2532874216646837</v>
       </c>
       <c r="Q5">
-        <v>261.7401484515202</v>
+        <v>267.546662694022</v>
       </c>
       <c r="R5">
-        <v>261.7401484515202</v>
+        <v>2407.919964246198</v>
       </c>
       <c r="S5">
-        <v>0.06669599369327046</v>
+        <v>0.05395213281203605</v>
       </c>
       <c r="T5">
-        <v>0.06669599369327046</v>
+        <v>0.05833008301572833</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.74972023968556</v>
+        <v>1.770634</v>
       </c>
       <c r="H6">
-        <v>1.74972023968556</v>
+        <v>5.311902</v>
       </c>
       <c r="I6">
-        <v>0.2643543951600681</v>
+        <v>0.2258515124762303</v>
       </c>
       <c r="J6">
-        <v>0.2643543951600681</v>
+        <v>0.2302920635867541</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>16.7880703945014</v>
+        <v>18.12446233333333</v>
       </c>
       <c r="N6">
-        <v>16.7880703945014</v>
+        <v>54.373387</v>
       </c>
       <c r="O6">
-        <v>0.02831471957126403</v>
+        <v>0.02865365369084289</v>
       </c>
       <c r="P6">
-        <v>0.02831471957126403</v>
+        <v>0.03038141635232813</v>
       </c>
       <c r="Q6">
-        <v>29.37442655452504</v>
+        <v>32.09178923911934</v>
       </c>
       <c r="R6">
-        <v>29.37442655452504</v>
+        <v>288.826103152074</v>
       </c>
       <c r="S6">
-        <v>0.007485120566388446</v>
+        <v>0.006471471024046984</v>
       </c>
       <c r="T6">
-        <v>0.007485120566388446</v>
+        <v>0.006996599066465999</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.74972023968556</v>
+        <v>1.770634</v>
       </c>
       <c r="H7">
-        <v>1.74972023968556</v>
+        <v>5.311902</v>
       </c>
       <c r="I7">
-        <v>0.2643543951600681</v>
+        <v>0.2258515124762303</v>
       </c>
       <c r="J7">
-        <v>0.2643543951600681</v>
+        <v>0.2302920635867541</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>80.4811008009132</v>
+        <v>88.3431645</v>
       </c>
       <c r="N7">
-        <v>80.4811008009132</v>
+        <v>176.686329</v>
       </c>
       <c r="O7">
-        <v>0.1357392330634297</v>
+        <v>0.139665077781682</v>
       </c>
       <c r="P7">
-        <v>0.1357392330634297</v>
+        <v>0.09872441687536272</v>
       </c>
       <c r="Q7">
-        <v>140.8194109835316</v>
+        <v>156.423410731293</v>
       </c>
       <c r="R7">
-        <v>140.8194109835316</v>
+        <v>938.540464387758</v>
       </c>
       <c r="S7">
-        <v>0.03588326285597448</v>
+        <v>0.03154356905710322</v>
       </c>
       <c r="T7">
-        <v>0.03588326285597448</v>
+        <v>0.02273544968862625</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.95139261063296</v>
+        <v>4.999072666666667</v>
       </c>
       <c r="H8">
-        <v>3.95139261063296</v>
+        <v>14.997218</v>
       </c>
       <c r="I8">
-        <v>0.5969914389351504</v>
+        <v>0.6376518934716313</v>
       </c>
       <c r="J8">
-        <v>0.5969914389351504</v>
+        <v>0.6501890059870105</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.1765442733921</v>
+        <v>19.5719925</v>
       </c>
       <c r="N8">
-        <v>19.1765442733921</v>
+        <v>39.143985</v>
       </c>
       <c r="O8">
-        <v>0.0323431139307629</v>
+        <v>0.03094210933382397</v>
       </c>
       <c r="P8">
-        <v>0.0323431139307629</v>
+        <v>0.02187190777676379</v>
       </c>
       <c r="Q8">
-        <v>75.77405533935735</v>
+        <v>97.841812738955</v>
       </c>
       <c r="R8">
-        <v>75.77405533935735</v>
+        <v>587.05087643373</v>
       </c>
       <c r="S8">
-        <v>0.01930856212516965</v>
+        <v>0.01973029460471909</v>
       </c>
       <c r="T8">
-        <v>0.01930856212516965</v>
+        <v>0.01422087397641361</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.95139261063296</v>
+        <v>4.999072666666667</v>
       </c>
       <c r="H9">
-        <v>3.95139261063296</v>
+        <v>14.997218</v>
       </c>
       <c r="I9">
-        <v>0.5969914389351504</v>
+        <v>0.6376518934716313</v>
       </c>
       <c r="J9">
-        <v>0.5969914389351504</v>
+        <v>0.6501890059870105</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>108.332707554478</v>
+        <v>115.495743</v>
       </c>
       <c r="N9">
-        <v>108.332707554478</v>
+        <v>346.487229</v>
       </c>
       <c r="O9">
-        <v>0.1827136867263477</v>
+        <v>0.1825916246134488</v>
       </c>
       <c r="P9">
-        <v>0.1827136867263477</v>
+        <v>0.1936015640337701</v>
       </c>
       <c r="Q9">
-        <v>428.0650601206258</v>
+        <v>577.371611947658</v>
       </c>
       <c r="R9">
-        <v>428.0650601206258</v>
+        <v>5196.344507528922</v>
       </c>
       <c r="S9">
-        <v>0.1090785067519086</v>
+        <v>0.1164298951668269</v>
       </c>
       <c r="T9">
-        <v>0.1090785067519086</v>
+        <v>0.1258776084766475</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.95139261063296</v>
+        <v>4.999072666666667</v>
       </c>
       <c r="H10">
-        <v>3.95139261063296</v>
+        <v>14.997218</v>
       </c>
       <c r="I10">
-        <v>0.5969914389351504</v>
+        <v>0.6376518934716313</v>
       </c>
       <c r="J10">
-        <v>0.5969914389351504</v>
+        <v>0.6501890059870105</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>218.541511299469</v>
+        <v>239.8982746666667</v>
       </c>
       <c r="N10">
-        <v>218.541511299469</v>
+        <v>719.694824</v>
       </c>
       <c r="O10">
-        <v>0.3685915928224504</v>
+        <v>0.3792643310961689</v>
       </c>
       <c r="P10">
-        <v>0.3685915928224504</v>
+        <v>0.4021332732970914</v>
       </c>
       <c r="Q10">
-        <v>863.5433128652813</v>
+        <v>1199.268907666626</v>
       </c>
       <c r="R10">
-        <v>863.5433128652813</v>
+        <v>10793.42016899963</v>
       </c>
       <c r="S10">
-        <v>0.2200460253784737</v>
+        <v>0.2418386188497238</v>
       </c>
       <c r="T10">
-        <v>0.2200460253784737</v>
+        <v>0.2614626332393387</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.95139261063296</v>
+        <v>4.999072666666667</v>
       </c>
       <c r="H11">
-        <v>3.95139261063296</v>
+        <v>14.997218</v>
       </c>
       <c r="I11">
-        <v>0.5969914389351504</v>
+        <v>0.6376518934716313</v>
       </c>
       <c r="J11">
-        <v>0.5969914389351504</v>
+        <v>0.6501890059870105</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>149.589712980949</v>
+        <v>151.102183</v>
       </c>
       <c r="N11">
-        <v>149.589712980949</v>
+        <v>453.306549</v>
       </c>
       <c r="O11">
-        <v>0.2522976538857455</v>
+        <v>0.2388832034840335</v>
       </c>
       <c r="P11">
-        <v>0.2522976538857455</v>
+        <v>0.2532874216646837</v>
       </c>
       <c r="Q11">
-        <v>591.0876864996272</v>
+        <v>755.3707929089646</v>
       </c>
       <c r="R11">
-        <v>591.0876864996272</v>
+        <v>6798.337136180681</v>
       </c>
       <c r="S11">
-        <v>0.1506195394332137</v>
+        <v>0.152324327020163</v>
       </c>
       <c r="T11">
-        <v>0.1506195394332137</v>
+        <v>0.1646846969211735</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.95139261063296</v>
+        <v>4.999072666666667</v>
       </c>
       <c r="H12">
-        <v>3.95139261063296</v>
+        <v>14.997218</v>
       </c>
       <c r="I12">
-        <v>0.5969914389351504</v>
+        <v>0.6376518934716313</v>
       </c>
       <c r="J12">
-        <v>0.5969914389351504</v>
+        <v>0.6501890059870105</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>16.7880703945014</v>
+        <v>18.12446233333333</v>
       </c>
       <c r="N12">
-        <v>16.7880703945014</v>
+        <v>54.373387</v>
       </c>
       <c r="O12">
-        <v>0.02831471957126403</v>
+        <v>0.02865365369084289</v>
       </c>
       <c r="P12">
-        <v>0.02831471957126403</v>
+        <v>0.03038141635232813</v>
       </c>
       <c r="Q12">
-        <v>66.33625730361879</v>
+        <v>90.60550424859622</v>
       </c>
       <c r="R12">
-        <v>66.33625730361879</v>
+        <v>815.449538237366</v>
       </c>
       <c r="S12">
-        <v>0.01690364517989418</v>
+        <v>0.01827105653084636</v>
       </c>
       <c r="T12">
-        <v>0.01690364517989418</v>
+        <v>0.01975366289859773</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.95139261063296</v>
+        <v>4.999072666666667</v>
       </c>
       <c r="H13">
-        <v>3.95139261063296</v>
+        <v>14.997218</v>
       </c>
       <c r="I13">
-        <v>0.5969914389351504</v>
+        <v>0.6376518934716313</v>
       </c>
       <c r="J13">
-        <v>0.5969914389351504</v>
+        <v>0.6501890059870105</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>80.4811008009132</v>
+        <v>88.3431645</v>
       </c>
       <c r="N13">
-        <v>80.4811008009132</v>
+        <v>176.686329</v>
       </c>
       <c r="O13">
-        <v>0.1357392330634297</v>
+        <v>0.139665077781682</v>
       </c>
       <c r="P13">
-        <v>0.1357392330634297</v>
+        <v>0.09872441687536272</v>
       </c>
       <c r="Q13">
-        <v>318.0124270003348</v>
+        <v>441.633898938787</v>
       </c>
       <c r="R13">
-        <v>318.0124270003348</v>
+        <v>2649.803393632722</v>
       </c>
       <c r="S13">
-        <v>0.08103516006649063</v>
+        <v>0.08905770129935217</v>
       </c>
       <c r="T13">
-        <v>0.08103516006649063</v>
+        <v>0.06418953047483933</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.464311389585786</v>
+        <v>0.4894313333333333</v>
       </c>
       <c r="H14">
-        <v>0.464311389585786</v>
+        <v>1.468294</v>
       </c>
       <c r="I14">
-        <v>0.07014993241544669</v>
+        <v>0.06242894177260312</v>
       </c>
       <c r="J14">
-        <v>0.07014993241544669</v>
+        <v>0.06365638056049405</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>19.1765442733921</v>
+        <v>19.5719925</v>
       </c>
       <c r="N14">
-        <v>19.1765442733921</v>
+        <v>39.143985</v>
       </c>
       <c r="O14">
-        <v>0.0323431139307629</v>
+        <v>0.03094210933382397</v>
       </c>
       <c r="P14">
-        <v>0.0323431139307629</v>
+        <v>0.02187190777676379</v>
       </c>
       <c r="Q14">
-        <v>8.903887919032032</v>
+        <v>9.579146385265</v>
       </c>
       <c r="R14">
-        <v>8.903887919032032</v>
+        <v>57.47487831159</v>
       </c>
       <c r="S14">
-        <v>0.002268867256348109</v>
+        <v>0.001931683141922816</v>
       </c>
       <c r="T14">
-        <v>0.002268867256348109</v>
+        <v>0.001392286485021705</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.464311389585786</v>
+        <v>0.4894313333333333</v>
       </c>
       <c r="H15">
-        <v>0.464311389585786</v>
+        <v>1.468294</v>
       </c>
       <c r="I15">
-        <v>0.07014993241544669</v>
+        <v>0.06242894177260312</v>
       </c>
       <c r="J15">
-        <v>0.07014993241544669</v>
+        <v>0.06365638056049405</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>108.332707554478</v>
+        <v>115.495743</v>
       </c>
       <c r="N15">
-        <v>108.332707554478</v>
+        <v>346.487229</v>
       </c>
       <c r="O15">
-        <v>0.1827136867263477</v>
+        <v>0.1825916246134488</v>
       </c>
       <c r="P15">
-        <v>0.1827136867263477</v>
+        <v>0.1936015640337701</v>
       </c>
       <c r="Q15">
-        <v>50.30010998221026</v>
+        <v>56.527235490814</v>
       </c>
       <c r="R15">
-        <v>50.30010998221026</v>
+        <v>508.745119417326</v>
       </c>
       <c r="S15">
-        <v>0.01281735277523039</v>
+        <v>0.011399001901158</v>
       </c>
       <c r="T15">
-        <v>0.01281735277523039</v>
+        <v>0.01232397483724053</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>21</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.464311389585786</v>
+        <v>0.4894313333333333</v>
       </c>
       <c r="H16">
-        <v>0.464311389585786</v>
+        <v>1.468294</v>
       </c>
       <c r="I16">
-        <v>0.07014993241544669</v>
+        <v>0.06242894177260312</v>
       </c>
       <c r="J16">
-        <v>0.07014993241544669</v>
+        <v>0.06365638056049405</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>218.541511299469</v>
+        <v>239.8982746666667</v>
       </c>
       <c r="N16">
-        <v>218.541511299469</v>
+        <v>719.694824</v>
       </c>
       <c r="O16">
-        <v>0.3685915928224504</v>
+        <v>0.3792643310961689</v>
       </c>
       <c r="P16">
-        <v>0.3685915928224504</v>
+        <v>0.4021332732970914</v>
       </c>
       <c r="Q16">
-        <v>101.4713127936342</v>
+        <v>117.4137324344729</v>
       </c>
       <c r="R16">
-        <v>101.4713127936342</v>
+        <v>1056.723591910256</v>
       </c>
       <c r="S16">
-        <v>0.02585667532539674</v>
+        <v>0.023677070842428</v>
       </c>
       <c r="T16">
-        <v>0.02585667532539674</v>
+        <v>0.02559834868103681</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.464311389585786</v>
+        <v>0.4894313333333333</v>
       </c>
       <c r="H17">
-        <v>0.464311389585786</v>
+        <v>1.468294</v>
       </c>
       <c r="I17">
-        <v>0.07014993241544669</v>
+        <v>0.06242894177260312</v>
       </c>
       <c r="J17">
-        <v>0.07014993241544669</v>
+        <v>0.06365638056049405</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>149.589712980949</v>
+        <v>151.102183</v>
       </c>
       <c r="N17">
-        <v>149.589712980949</v>
+        <v>453.306549</v>
       </c>
       <c r="O17">
-        <v>0.2522976538857455</v>
+        <v>0.2388832034840335</v>
       </c>
       <c r="P17">
-        <v>0.2522976538857455</v>
+        <v>0.2532874216646837</v>
       </c>
       <c r="Q17">
-        <v>69.45620750192332</v>
+        <v>73.95414289526732</v>
       </c>
       <c r="R17">
-        <v>69.45620750192332</v>
+        <v>665.5872860574059</v>
       </c>
       <c r="S17">
-        <v>0.01769866336866081</v>
+        <v>0.01491322560075763</v>
       </c>
       <c r="T17">
-        <v>0.01769866336866081</v>
+        <v>0.01612336050467343</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.464311389585786</v>
+        <v>0.4894313333333333</v>
       </c>
       <c r="H18">
-        <v>0.464311389585786</v>
+        <v>1.468294</v>
       </c>
       <c r="I18">
-        <v>0.07014993241544669</v>
+        <v>0.06242894177260312</v>
       </c>
       <c r="J18">
-        <v>0.07014993241544669</v>
+        <v>0.06365638056049405</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>16.7880703945014</v>
+        <v>18.12446233333333</v>
       </c>
       <c r="N18">
-        <v>16.7880703945014</v>
+        <v>54.373387</v>
       </c>
       <c r="O18">
-        <v>0.02831471957126403</v>
+        <v>0.02865365369084289</v>
       </c>
       <c r="P18">
-        <v>0.02831471957126403</v>
+        <v>0.03038141635232813</v>
       </c>
       <c r="Q18">
-        <v>7.794892293334939</v>
+        <v>8.870679765753112</v>
       </c>
       <c r="R18">
-        <v>7.794892293334939</v>
+        <v>79.836117891778</v>
       </c>
       <c r="S18">
-        <v>0.001986275664286497</v>
+        <v>0.001788817277837965</v>
       </c>
       <c r="T18">
-        <v>0.001986275664286497</v>
+        <v>0.001933971001290617</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.464311389585786</v>
+        <v>0.4894313333333333</v>
       </c>
       <c r="H19">
-        <v>0.464311389585786</v>
+        <v>1.468294</v>
       </c>
       <c r="I19">
-        <v>0.07014993241544669</v>
+        <v>0.06242894177260312</v>
       </c>
       <c r="J19">
-        <v>0.07014993241544669</v>
+        <v>0.06365638056049405</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>80.4811008009132</v>
+        <v>88.3431645</v>
       </c>
       <c r="N19">
-        <v>80.4811008009132</v>
+        <v>176.686329</v>
       </c>
       <c r="O19">
-        <v>0.1357392330634297</v>
+        <v>0.139665077781682</v>
       </c>
       <c r="P19">
-        <v>0.1357392330634297</v>
+        <v>0.09872441687536272</v>
       </c>
       <c r="Q19">
-        <v>37.36829174826572</v>
+        <v>43.237912792121</v>
       </c>
       <c r="R19">
-        <v>37.36829174826572</v>
+        <v>259.427476752726</v>
       </c>
       <c r="S19">
-        <v>0.009522098025524159</v>
+        <v>0.008719143008498709</v>
       </c>
       <c r="T19">
-        <v>0.009522098025524159</v>
+        <v>0.00628443905123095</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.453418766757619</v>
+        <v>0.1271686666666667</v>
       </c>
       <c r="H20">
-        <v>0.453418766757619</v>
+        <v>0.381506</v>
       </c>
       <c r="I20">
-        <v>0.06850423348933475</v>
+        <v>0.01622087664997523</v>
       </c>
       <c r="J20">
-        <v>0.06850423348933475</v>
+        <v>0.0165398013763673</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>19.1765442733921</v>
+        <v>19.5719925</v>
       </c>
       <c r="N20">
-        <v>19.1765442733921</v>
+        <v>39.143985</v>
       </c>
       <c r="O20">
-        <v>0.0323431139307629</v>
+        <v>0.03094210933382397</v>
       </c>
       <c r="P20">
-        <v>0.0323431139307629</v>
+        <v>0.02187190777676379</v>
       </c>
       <c r="Q20">
-        <v>8.695005055114327</v>
+        <v>2.488944190235</v>
       </c>
       <c r="R20">
-        <v>8.695005055114327</v>
+        <v>14.93366514141</v>
       </c>
       <c r="S20">
-        <v>0.002215640228485137</v>
+        <v>0.0005019081387940058</v>
       </c>
       <c r="T20">
-        <v>0.002215640228485137</v>
+        <v>0.0003617570103498963</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>20</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.453418766757619</v>
+        <v>0.1271686666666667</v>
       </c>
       <c r="H21">
-        <v>0.453418766757619</v>
+        <v>0.381506</v>
       </c>
       <c r="I21">
-        <v>0.06850423348933475</v>
+        <v>0.01622087664997523</v>
       </c>
       <c r="J21">
-        <v>0.06850423348933475</v>
+        <v>0.0165398013763673</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>108.332707554478</v>
+        <v>115.495743</v>
       </c>
       <c r="N21">
-        <v>108.332707554478</v>
+        <v>346.487229</v>
       </c>
       <c r="O21">
-        <v>0.1827136867263477</v>
+        <v>0.1825916246134488</v>
       </c>
       <c r="P21">
-        <v>0.1827136867263477</v>
+        <v>0.1936015640337701</v>
       </c>
       <c r="Q21">
-        <v>49.12008265886521</v>
+        <v>14.687439642986</v>
       </c>
       <c r="R21">
-        <v>49.12008265886521</v>
+        <v>132.186956786874</v>
       </c>
       <c r="S21">
-        <v>0.01251666105719888</v>
+        <v>0.002961796220173334</v>
       </c>
       <c r="T21">
-        <v>0.01251666105719888</v>
+        <v>0.003202131415272612</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.453418766757619</v>
+        <v>0.1271686666666667</v>
       </c>
       <c r="H22">
-        <v>0.453418766757619</v>
+        <v>0.381506</v>
       </c>
       <c r="I22">
-        <v>0.06850423348933475</v>
+        <v>0.01622087664997523</v>
       </c>
       <c r="J22">
-        <v>0.06850423348933475</v>
+        <v>0.0165398013763673</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>218.541511299469</v>
+        <v>239.8982746666667</v>
       </c>
       <c r="N22">
-        <v>218.541511299469</v>
+        <v>719.694824</v>
       </c>
       <c r="O22">
-        <v>0.3685915928224504</v>
+        <v>0.3792643310961689</v>
       </c>
       <c r="P22">
-        <v>0.3685915928224504</v>
+        <v>0.4021332732970914</v>
       </c>
       <c r="Q22">
-        <v>99.09082253875148</v>
+        <v>30.50754372499378</v>
       </c>
       <c r="R22">
-        <v>99.09082253875148</v>
+        <v>274.567893524944</v>
       </c>
       <c r="S22">
-        <v>0.02525008453691494</v>
+        <v>0.00615199993244632</v>
       </c>
       <c r="T22">
-        <v>0.02525008453691494</v>
+        <v>0.006651204467162319</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>22</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.453418766757619</v>
+        <v>0.1271686666666667</v>
       </c>
       <c r="H23">
-        <v>0.453418766757619</v>
+        <v>0.381506</v>
       </c>
       <c r="I23">
-        <v>0.06850423348933475</v>
+        <v>0.01622087664997523</v>
       </c>
       <c r="J23">
-        <v>0.06850423348933475</v>
+        <v>0.0165398013763673</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>149.589712980949</v>
+        <v>151.102183</v>
       </c>
       <c r="N23">
-        <v>149.589712980949</v>
+        <v>453.306549</v>
       </c>
       <c r="O23">
-        <v>0.2522976538857455</v>
+        <v>0.2388832034840335</v>
       </c>
       <c r="P23">
-        <v>0.2522976538857455</v>
+        <v>0.2532874216646837</v>
       </c>
       <c r="Q23">
-        <v>67.82678317944809</v>
+        <v>19.21546314253267</v>
       </c>
       <c r="R23">
-        <v>67.82678317944809</v>
+        <v>172.939168282794</v>
       </c>
       <c r="S23">
-        <v>0.01728345739060047</v>
+        <v>0.00387489497746544</v>
       </c>
       <c r="T23">
-        <v>0.01728345739060047</v>
+        <v>0.00418932364546606</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.453418766757619</v>
+        <v>0.1271686666666667</v>
       </c>
       <c r="H24">
-        <v>0.453418766757619</v>
+        <v>0.381506</v>
       </c>
       <c r="I24">
-        <v>0.06850423348933475</v>
+        <v>0.01622087664997523</v>
       </c>
       <c r="J24">
-        <v>0.06850423348933475</v>
+        <v>0.0165398013763673</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>16.7880703945014</v>
+        <v>18.12446233333333</v>
       </c>
       <c r="N24">
-        <v>16.7880703945014</v>
+        <v>54.373387</v>
       </c>
       <c r="O24">
-        <v>0.02831471957126403</v>
+        <v>0.02865365369084289</v>
       </c>
       <c r="P24">
-        <v>0.02831471957126403</v>
+        <v>0.03038141635232813</v>
       </c>
       <c r="Q24">
-        <v>7.612026174514919</v>
+        <v>2.304863708980223</v>
       </c>
       <c r="R24">
-        <v>7.612026174514919</v>
+        <v>20.743773380822</v>
       </c>
       <c r="S24">
-        <v>0.001939678160694907</v>
+        <v>0.0004647873820902699</v>
       </c>
       <c r="T24">
-        <v>0.001939678160694907</v>
+        <v>0.0005025025920002247</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,433 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.1271686666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.381506</v>
+      </c>
+      <c r="I25">
+        <v>0.01622087664997523</v>
+      </c>
+      <c r="J25">
+        <v>0.0165398013763673</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>88.3431645</v>
+      </c>
+      <c r="N25">
+        <v>176.686329</v>
+      </c>
+      <c r="O25">
+        <v>0.139665077781682</v>
+      </c>
+      <c r="P25">
+        <v>0.09872441687536272</v>
+      </c>
+      <c r="Q25">
+        <v>11.234482438579</v>
+      </c>
+      <c r="R25">
+        <v>67.406894631474</v>
+      </c>
+      <c r="S25">
+        <v>0.002265489999005859</v>
+      </c>
+      <c r="T25">
+        <v>0.001632882246116183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.453508</v>
+      </c>
+      <c r="H26">
+        <v>0.907016</v>
+      </c>
+      <c r="I26">
+        <v>0.05784677562955995</v>
+      </c>
+      <c r="J26">
+        <v>0.03932274848937412</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>19.5719925</v>
+      </c>
+      <c r="N26">
+        <v>39.143985</v>
+      </c>
+      <c r="O26">
+        <v>0.03094210933382397</v>
+      </c>
+      <c r="P26">
+        <v>0.02187190777676379</v>
+      </c>
+      <c r="Q26">
+        <v>8.87605517469</v>
+      </c>
+      <c r="R26">
+        <v>35.50422069876</v>
+      </c>
+      <c r="S26">
+        <v>0.001789901256139028</v>
+      </c>
+      <c r="T26">
+        <v>0.0008600635284884683</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.453508</v>
+      </c>
+      <c r="H27">
+        <v>0.907016</v>
+      </c>
+      <c r="I27">
+        <v>0.05784677562955995</v>
+      </c>
+      <c r="J27">
+        <v>0.03932274848937412</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>115.495743</v>
+      </c>
+      <c r="N27">
+        <v>346.487229</v>
+      </c>
+      <c r="O27">
+        <v>0.1825916246134488</v>
+      </c>
+      <c r="P27">
+        <v>0.1936015640337701</v>
+      </c>
+      <c r="Q27">
+        <v>52.37824341644401</v>
+      </c>
+      <c r="R27">
+        <v>314.269460498664</v>
+      </c>
+      <c r="S27">
+        <v>0.01056233674085101</v>
+      </c>
+      <c r="T27">
+        <v>0.007612945609649399</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.453508</v>
+      </c>
+      <c r="H28">
+        <v>0.907016</v>
+      </c>
+      <c r="I28">
+        <v>0.05784677562955995</v>
+      </c>
+      <c r="J28">
+        <v>0.03932274848937412</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>239.8982746666667</v>
+      </c>
+      <c r="N28">
+        <v>719.694824</v>
+      </c>
+      <c r="O28">
+        <v>0.3792643310961689</v>
+      </c>
+      <c r="P28">
+        <v>0.4021332732970914</v>
+      </c>
+      <c r="Q28">
+        <v>108.7957867475307</v>
+      </c>
+      <c r="R28">
+        <v>652.774720485184</v>
+      </c>
+      <c r="S28">
+        <v>0.02193921866521522</v>
+      </c>
+      <c r="T28">
+        <v>0.01581298556507027</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.453508</v>
+      </c>
+      <c r="H29">
+        <v>0.907016</v>
+      </c>
+      <c r="I29">
+        <v>0.05784677562955995</v>
+      </c>
+      <c r="J29">
+        <v>0.03932274848937412</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>151.102183</v>
+      </c>
+      <c r="N29">
+        <v>453.306549</v>
+      </c>
+      <c r="O29">
+        <v>0.2388832034840335</v>
+      </c>
+      <c r="P29">
+        <v>0.2532874216646837</v>
+      </c>
+      <c r="Q29">
+        <v>68.526048807964</v>
+      </c>
+      <c r="R29">
+        <v>411.156292847784</v>
+      </c>
+      <c r="S29">
+        <v>0.0138186230736114</v>
+      </c>
+      <c r="T29">
+        <v>0.009959957577642406</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.453418766757619</v>
-      </c>
-      <c r="H25">
-        <v>0.453418766757619</v>
-      </c>
-      <c r="I25">
-        <v>0.06850423348933475</v>
-      </c>
-      <c r="J25">
-        <v>0.06850423348933475</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>80.4811008009132</v>
-      </c>
-      <c r="N25">
-        <v>80.4811008009132</v>
-      </c>
-      <c r="O25">
-        <v>0.1357392330634297</v>
-      </c>
-      <c r="P25">
-        <v>0.1357392330634297</v>
-      </c>
-      <c r="Q25">
-        <v>36.49164147244569</v>
-      </c>
-      <c r="R25">
-        <v>36.49164147244569</v>
-      </c>
-      <c r="S25">
-        <v>0.009298712115440415</v>
-      </c>
-      <c r="T25">
-        <v>0.009298712115440415</v>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.453508</v>
+      </c>
+      <c r="H30">
+        <v>0.907016</v>
+      </c>
+      <c r="I30">
+        <v>0.05784677562955995</v>
+      </c>
+      <c r="J30">
+        <v>0.03932274848937412</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>18.12446233333333</v>
+      </c>
+      <c r="N30">
+        <v>54.373387</v>
+      </c>
+      <c r="O30">
+        <v>0.02865365369084289</v>
+      </c>
+      <c r="P30">
+        <v>0.03038141635232813</v>
+      </c>
+      <c r="Q30">
+        <v>8.219588663865334</v>
+      </c>
+      <c r="R30">
+        <v>49.317531983192</v>
+      </c>
+      <c r="S30">
+        <v>0.001657521476021301</v>
+      </c>
+      <c r="T30">
+        <v>0.001194680793973557</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.453508</v>
+      </c>
+      <c r="H31">
+        <v>0.907016</v>
+      </c>
+      <c r="I31">
+        <v>0.05784677562955995</v>
+      </c>
+      <c r="J31">
+        <v>0.03932274848937412</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>88.3431645</v>
+      </c>
+      <c r="N31">
+        <v>176.686329</v>
+      </c>
+      <c r="O31">
+        <v>0.139665077781682</v>
+      </c>
+      <c r="P31">
+        <v>0.09872441687536272</v>
+      </c>
+      <c r="Q31">
+        <v>40.064331846066</v>
+      </c>
+      <c r="R31">
+        <v>160.257327384264</v>
+      </c>
+      <c r="S31">
+        <v>0.008079174417721996</v>
+      </c>
+      <c r="T31">
+        <v>0.00388211541455001</v>
       </c>
     </row>
   </sheetData>
